--- a/Documentación/Diseño BBDD.xlsx
+++ b/Documentación/Diseño BBDD.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t>nombre_equipo</t>
   </si>
@@ -84,10 +84,22 @@
     <t>num_puestos</t>
   </si>
   <si>
-    <t>tipo_ordenadores</t>
-  </si>
-  <si>
     <t>ç</t>
+  </si>
+  <si>
+    <t>Verónica</t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>Puri</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>tipo_ordenador</t>
   </si>
 </sst>
 </file>
@@ -129,7 +141,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -350,11 +362,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -365,6 +386,66 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -374,64 +455,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -743,7 +767,7 @@
   <dimension ref="B1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,223 +782,255 @@
     <col min="8" max="8" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.42578125" style="1"/>
+    <col min="11" max="11" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" style="1"/>
+    <col min="15" max="15" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="F1" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="J1" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="N1" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+    </row>
     <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="F2" s="4" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
+      <c r="F2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-      <c r="J2" s="4" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="J2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="6"/>
-      <c r="N2" s="4" t="s">
+      <c r="K2" s="25"/>
+      <c r="L2" s="26"/>
+      <c r="N2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="6"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="26"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
         <v>20</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="19">
+      <c r="F4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="16">
         <v>20</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="2">
         <v>30</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="6" t="s">
         <v>19</v>
       </c>
       <c r="O4" s="2">
         <v>20</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="9">
         <v>100</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="2">
         <v>100</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K5" s="2">
         <v>150</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="O5" s="2">
         <v>2</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2">
         <v>10</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="9">
         <v>2</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="6" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="2">
         <v>2</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="9">
         <v>10</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="N7" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" s="16">
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="N7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="13">
         <v>20</v>
       </c>
-      <c r="P7" s="17" t="s">
+      <c r="P7" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N8" s="24" t="s">
+      <c r="N8" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="O8" s="25">
+      <c r="O8" s="22">
         <v>11</v>
       </c>
-      <c r="P8" s="26" t="s">
+      <c r="P8" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="N2:P2"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
